--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Diese ValueSet enhält LOINC-Codes für 'Altersgruppen'.</t>
+    <t>Dieses ValueSet enthält LOINC-Codes für unterschiedliche 'Altersgruppen'.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from fhir.loinc.org" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from loinc.org" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,7 +156,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from loinc.org" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,7 +156,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-age-groups.xlsx
+++ b/output/ValueSet-vs-age-groups.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
